--- a/WinKeyboardShortcuts.xlsx
+++ b/WinKeyboardShortcuts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\github\deliverystack\keyboardshortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\github\deliverystack\winkeyboardshortcuts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64978C75-18B6-40EE-B9F6-73EFDD1E83FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3123C0-4015-4CD3-97F9-2ECEA4234028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{33DE031D-6307-4830-8EC2-3A24CA55032D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="343">
   <si>
     <t>Create virtual desktop</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>Open folder</t>
+  </si>
+  <si>
+    <t>Shift+Alt+H</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB1982-5C99-4A16-87AE-94643F847A18}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2616,14 +2621,12 @@
       <c r="G34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="2" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2652,12 +2655,8 @@
         <v>81</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="2" t="s">
@@ -2685,12 +2684,8 @@
         <v>125</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="2" t="s">
@@ -2717,12 +2712,14 @@
       <c r="G37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="I37" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2752,10 +2749,10 @@
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="2" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2785,10 +2782,10 @@
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="2" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2818,10 +2815,10 @@
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="2" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2851,10 +2848,10 @@
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2882,14 +2879,12 @@
       <c r="G42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>283</v>
-      </c>
+      <c r="H42" s="11"/>
       <c r="I42" s="2" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2917,9 +2912,13 @@
       <c r="G43" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="3"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>295</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="2" t="s">
@@ -2948,9 +2947,13 @@
       <c r="G44" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="2" t="s">
@@ -2977,9 +2980,15 @@
       <c r="G45" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3"/>
+      <c r="H45" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="2" t="s">
